--- a/week2/업체별 현재시세.xlsx
+++ b/week2/업체별 현재시세.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="업체별 현재시세" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="업체별 현재시세" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61300</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>206500</v>
+        <v>210500</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54400</v>
+        <v>54500</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86000</v>
+        <v>83500</v>
       </c>
     </row>
     <row r="6">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85300</v>
+        <v>84900</v>
       </c>
     </row>
     <row r="7">
